--- a/Resources/Database Diagram.xlsx
+++ b/Resources/Database Diagram.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\Team-A-Kaggle_Brazilian_E_commerce\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF427FD-0554-473C-BD2E-5851D4953DEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD623993-9DD3-4DF3-AD10-772810522A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
+    <workbookView xWindow="-24555" yWindow="210" windowWidth="23115" windowHeight="15150" activeTab="1" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
   </bookViews>
   <sheets>
-    <sheet name="RAW Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data sets" sheetId="3" r:id="rId1"/>
+    <sheet name="RAW Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Diagram" sheetId="2" r:id="rId4"/>
+    <sheet name="Code" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="146">
   <si>
     <t>customer_id</t>
   </si>
@@ -266,13 +269,211 @@
   </si>
   <si>
     <t>product_category_name_translation</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/olistbr/brazilian-ecommerce</t>
+  </si>
+  <si>
+    <t>Brazilian-ecommerce Dataset</t>
+  </si>
+  <si>
+    <t>Data set:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: </t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/olistbr/marketing-funnel-olist?select=olist_marketing_qualified_leads_dataset.csv</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>olist_order_items_dataset</t>
+  </si>
+  <si>
+    <t>olist_orders_dataset</t>
+  </si>
+  <si>
+    <t>olist_products_dataset</t>
+  </si>
+  <si>
+    <t>olist_marketing_qualified_leads_dataset</t>
+  </si>
+  <si>
+    <t>olist_closed_deals_dataset</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Annette</t>
+  </si>
+  <si>
+    <t>Narjes</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>geolocation</t>
+  </si>
+  <si>
+    <t>order_items</t>
+  </si>
+  <si>
+    <t>order_payments</t>
+  </si>
+  <si>
+    <t>order_reviews</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>sellers</t>
+  </si>
+  <si>
+    <t>Final table name</t>
+  </si>
+  <si>
+    <t>prod_category</t>
+  </si>
+  <si>
+    <t>mkt_leads</t>
+  </si>
+  <si>
+    <t>mkt_deals</t>
+  </si>
+  <si>
+    <t>PK varchar(50)</t>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
+    <t>CHANGED_DATE</t>
+  </si>
+  <si>
+    <t>CHANGED_BY</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>mql_id</t>
+  </si>
+  <si>
+    <t>dac32acd4db4c29c230538b72f8dd87d</t>
+  </si>
+  <si>
+    <t>first_contact_date</t>
+  </si>
+  <si>
+    <t>landing_page_id</t>
+  </si>
+  <si>
+    <t>88740e65d5d6b056e0cda098e1ea6313</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>5420aad7fec3549a85876ba1c529bd84</t>
+  </si>
+  <si>
+    <t>2c43fb513632d29b3b58df74816f1b06</t>
+  </si>
+  <si>
+    <t>sdr_id</t>
+  </si>
+  <si>
+    <t>a8387c01a09e99ce014107505b92388c</t>
+  </si>
+  <si>
+    <t>sr_id</t>
+  </si>
+  <si>
+    <t>4ef15afb4b2723d8f3d81e51ec7afefe</t>
+  </si>
+  <si>
+    <t>won_date</t>
+  </si>
+  <si>
+    <t>business_segment</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>lead_type</t>
+  </si>
+  <si>
+    <t>online_medium</t>
+  </si>
+  <si>
+    <t>lead_behaviour_profile</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>has_company</t>
+  </si>
+  <si>
+    <t>has_gtin</t>
+  </si>
+  <si>
+    <t>average_stock</t>
+  </si>
+  <si>
+    <t>business_type</t>
+  </si>
+  <si>
+    <t>reseller</t>
+  </si>
+  <si>
+    <t>declared_product_catalog_size</t>
+  </si>
+  <si>
+    <t>declared_monthly_revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +489,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +525,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -318,26 +547,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,16 +595,287 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Magnetic Disk 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91769922-1505-4F88-85CC-E4E9D6851764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="3657600"/>
+          <a:ext cx="1285875" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>RAW Files	</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Magnetic Disk 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA08DD98-CF24-454B-95B4-237700144CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210175" y="3695700"/>
+          <a:ext cx="1285875" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>STAGE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Magnetic Disk 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20A054A-88AB-46FD-A985-1FEF056EE0C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="3648075"/>
+          <a:ext cx="1285875" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D79005-79E9-4CF2-9FF8-B30726C49282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210051" y="1828800"/>
+          <a:ext cx="6648450" cy="6419850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BrazilianE-Commerce</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>172011</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>524436</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53228</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -381,8 +890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714376" y="2314575"/>
-          <a:ext cx="2228850" cy="2209800"/>
+          <a:off x="777129" y="2650752"/>
+          <a:ext cx="2223807" cy="2209800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -412,6 +921,13 @@
             <a:t>Brazilian E-Commerce</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>https://www.kaggle.com/olistbr/brazilian-ecommerce</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -419,15 +935,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -442,7 +958,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="2305050"/>
+          <a:off x="4705350" y="2638425"/>
           <a:ext cx="2247900" cy="2209800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -470,7 +986,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-MX" sz="1800"/>
-            <a:t>Stage</a:t>
+            <a:t> Stage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800"/>
+            <a:t>stg_sls_NAMETABLE</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -480,15 +1003,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>524436</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91328</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -506,8 +1029,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2943226" y="3409950"/>
-          <a:ext cx="1600199" cy="9525"/>
+          <a:off x="3000936" y="3740524"/>
+          <a:ext cx="1681442" cy="15128"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -536,15 +1059,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -559,8 +1082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="2314575"/>
-          <a:ext cx="2247900" cy="2209800"/>
+          <a:off x="8115300" y="4010025"/>
+          <a:ext cx="2247900" cy="2295525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -593,6 +1116,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-MX" sz="1800"/>
+            <a:t>BRZ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800" baseline="0"/>
+            <a:t> E Commerce Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800"/>
             <a:t>Warehouse</a:t>
           </a:r>
         </a:p>
@@ -603,15 +1134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -629,8 +1160,256 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6791325" y="3409950"/>
-          <a:ext cx="1209675" cy="9525"/>
+          <a:off x="6953250" y="3743325"/>
+          <a:ext cx="1162050" cy="1414463"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182096</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>534521</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Flowchart: Magnetic Disk 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891E5810-41DB-47AC-81D4-8123F83FCDDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="787214" y="5588934"/>
+          <a:ext cx="2223807" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800"/>
+            <a:t>Marketing Data Set</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>https://www.kaggle.com/olistbr/marketing-funnel-olist?select=olist_marketing_qualified_leads_dataset.csv</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>534521</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>172010</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DD49F8-BBAA-49D3-A88C-9F3B9A9382B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="4"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3011021" y="6693274"/>
+          <a:ext cx="1738032" cy="560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Flowchart: Magnetic Disk 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BA76E6-9E85-418F-A459-A24B14F917A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="5591175"/>
+          <a:ext cx="2247900" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800"/>
+            <a:t>Marketing Stage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1800"/>
+            <a:t>stg_mkt_NAMETABLE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6ECD12-950C-4C4C-99A2-43701D26B612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="4"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7019925" y="5157788"/>
+          <a:ext cx="1095375" cy="1538287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -955,18 +1734,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A66E1-FB4A-47C0-94FA-14965B4D9DD2}">
+  <dimension ref="A3:H14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE("stg_",B4)</f>
+        <v>stg_olist_customer_dataset</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E14" si="0">CONCATENATE("stg_",B5)</f>
+        <v>stg_olist_geolocation_dataset</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>stg_olist_order_items_dataset</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>stg_olist_order_payments_dataset</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>stg_olist_order_reviews_dataset</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>stg_olist_orders_dataset</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>stg_olist_products_dataset</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>stg_olist_sellers_dataset</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>stg_product_category_name_translation</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>stg_olist_marketing_qualified_leads_dataset</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>stg_olist_closed_deals_dataset</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD38FA21-38A4-4864-8FAF-3EEF1BAB0B21}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -978,16 +2044,16 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1017,7 +2083,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -1054,16 +2120,16 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1"/>
@@ -1072,7 +2138,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C11">
@@ -1125,22 +2191,22 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1195,7 +2261,7 @@
       <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>42997.406655092593</v>
       </c>
     </row>
@@ -1222,23 +2288,23 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1298,23 +2364,23 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1374,7 +2440,7 @@
       <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>43118</v>
       </c>
     </row>
@@ -1385,28 +2451,28 @@
       <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>43118.907627314817</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1453,7 +2519,7 @@
       <c r="B54" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>43010.455937500003</v>
       </c>
     </row>
@@ -1464,7 +2530,7 @@
       <c r="B55" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>43010.463368055556</v>
       </c>
     </row>
@@ -1475,7 +2541,7 @@
       <c r="B56" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>43012.829861111109</v>
       </c>
     </row>
@@ -1486,7 +2552,7 @@
       <c r="B57" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>43018.892511574071</v>
       </c>
     </row>
@@ -1497,28 +2563,28 @@
       <c r="B58" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>43026</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1625,23 +2691,23 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1689,28 +2755,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -1721,7 +2789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -1732,8 +2800,238 @@
         <v>74</v>
       </c>
     </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="10">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="3">
+        <v>43157.832569444443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A97:C97"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A81:C81"/>
@@ -1749,20 +3047,246 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B010B75-3BB7-41FC-9749-48A9AFF6012A}">
+  <dimension ref="B3:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="10">
+        <f ca="1">TODAY()</f>
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3FFCCF-85ED-4059-9026-9FD119C11E9B}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B1" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{9E865927-E26E-426A-A191-A815BF97B2C4}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{79CFAFD9-B07C-4739-8F37-B7E5CCB5C8D1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D9DAD1-9CDE-4379-AD7B-C074435B0DB4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Database Diagram.xlsx
+++ b/Resources/Database Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\Team-A-Kaggle_Brazilian_E_commerce\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD623993-9DD3-4DF3-AD10-772810522A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5977F6A-B566-4C87-A30D-BD8ED4343F36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24555" yWindow="210" windowWidth="23115" windowHeight="15150" activeTab="1" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
   </bookViews>
   <sheets>
     <sheet name="Data sets" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="165">
   <si>
     <t>customer_id</t>
   </si>
@@ -467,13 +467,70 @@
   </si>
   <si>
     <t>declared_monthly_revenue</t>
+  </si>
+  <si>
+    <t>DATA BASE</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>Landing Database</t>
+  </si>
+  <si>
+    <t>1. Establish a Connection to the Database</t>
+  </si>
+  <si>
+    <t>3. normalizing Dates</t>
+  </si>
+  <si>
+    <t>4. fixing the field types</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>2. Pull data from the stage tables DF</t>
+  </si>
+  <si>
+    <t>5. Push back to database</t>
+  </si>
+  <si>
+    <t>Create_date</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>varchar(xxxx)</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>Varchar(12)</t>
+  </si>
+  <si>
+    <t>Varchar(2)</t>
+  </si>
+  <si>
+    <t>Varchar(30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATED_BY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANGED_DATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANGED_BY </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,8 +562,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,12 +587,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,19 +619,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1415,6 +1476,1016 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E877132-6D9F-40C1-8F6A-70AD50B58232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="66675"/>
+          <a:ext cx="5133975" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STAGE AREA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Process 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583B516-5EEC-46B6-B422-D6C29C11B3C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="304800"/>
+          <a:ext cx="1933575" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>stg_olist_products_dataset </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_category_name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_name_lenght</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_description_lenght</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_photos_qty</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_weight_g</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_length_cm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_height_cm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_width_cm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Multidocument 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B1003B-DDCE-471B-8081-DE984562277A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="990600"/>
+          <a:ext cx="1181100" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMultidocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>RAW FILES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBD1A08-07DD-4B5E-A4DC-72416DC0EC22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="1557338"/>
+          <a:ext cx="1095375" cy="33337"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flowchart: Process 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D39345-3BD8-418F-8197-B57BE6834E43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="238125"/>
+          <a:ext cx="1933575" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>products</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_category_name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_name_lenght</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_description_lenght</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_photos_qty</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_weight_g</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_length_cm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_height_cm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>product_width_cm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CREATE_DATE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CREATED_BY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CHANGED_DATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CHANGED_BY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052DA34B-9B6F-4003-9B2F-410BEAA7D8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="1076325"/>
+          <a:ext cx="2057400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>PULL DATA FROM DATABASE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>TRANSFORM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> in PYTHON</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>Send BACK TO New Table</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F26B7C-6706-45D1-BB06-CC5D98BC8CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4686300" y="1533525"/>
+          <a:ext cx="971550" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E579B04-80F2-47C2-8F9E-5B90C0729A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="1533525"/>
+          <a:ext cx="876300" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1738,7 +2809,7 @@
   <dimension ref="A3:H14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G4" sqref="G4:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,28 +2821,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1905,7 +2976,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C10" t="s">
@@ -1929,7 +3000,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C11" t="s">
@@ -1953,7 +3024,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C12" t="s">
@@ -1977,7 +3048,7 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C13" t="s">
@@ -1998,7 +3069,7 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C14" t="s">
@@ -2022,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD38FA21-38A4-4864-8FAF-3EEF1BAB0B21}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,11 +3108,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2067,6 +3138,9 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2083,7 +3157,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -2112,263 +3186,244 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C16">
         <v>1037</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="C17">
         <v>-23.545621281152599</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
+      <c r="C18">
         <v>-46.6392920480016</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
+      <c r="D19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B29" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="C21">
+      <c r="C30">
         <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3">
-        <v>42997.406655092593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>13.29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C33" s="3">
+        <v>42997.406655092593</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>99.33</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -2389,10 +3444,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2400,10 +3455,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,10 +3466,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,7 +3477,10 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,447 +3488,455 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="3">
-        <v>43118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="3">
-        <v>43118.907627314817</v>
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <v>99.33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>20</v>
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C54" s="3">
-        <v>43010.455937500003</v>
+        <v>43118</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C55" s="3">
-        <v>43010.463368055556</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="3">
-        <v>43012.829861111109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="3">
-        <v>43018.892511574071</v>
+        <v>43118.907627314817</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="3">
-        <v>43026</v>
+      <c r="A58" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>20</v>
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C63" s="3">
+        <v>43010.455937500003</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="C64" s="3">
+        <v>43010.463368055556</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65">
-        <v>40</v>
-      </c>
-      <c r="D65" t="s">
-        <v>77</v>
+        <v>52</v>
+      </c>
+      <c r="C65" s="3">
+        <v>43012.829861111109</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66">
-        <v>287</v>
+        <v>53</v>
+      </c>
+      <c r="C66" s="3">
+        <v>43018.892511574071</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67">
+        <v>54</v>
+      </c>
+      <c r="C67" s="3">
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>8</v>
-      </c>
-      <c r="B70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>9</v>
-      </c>
-      <c r="B71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71">
-        <v>14</v>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>20</v>
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="C75">
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C76">
-        <v>13023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="C77">
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="H81" s="11"/>
+      <c r="B79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80">
+        <v>14</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H82" s="11"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>2</v>
       </c>
-      <c r="B84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85">
+        <v>13023</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>2</v>
-      </c>
-      <c r="B91" t="s">
-        <v>121</v>
-      </c>
-      <c r="C91" s="10">
-        <v>43132</v>
-      </c>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="A97" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -2894,7 +3960,7 @@
         <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,10 +3968,10 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="C100" s="7">
+        <v>43132</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2913,10 +3979,10 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,123 +3990,188 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>5</v>
-      </c>
-      <c r="B103" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="3">
-        <v>43157.832569444443</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>6</v>
-      </c>
-      <c r="B104" t="s">
-        <v>133</v>
-      </c>
-      <c r="C104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>7</v>
-      </c>
-      <c r="B105" t="s">
-        <v>135</v>
-      </c>
-      <c r="C105" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>8</v>
-      </c>
-      <c r="B106" t="s">
-        <v>137</v>
-      </c>
-      <c r="C106" t="s">
-        <v>138</v>
-      </c>
+      <c r="A106" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>9</v>
-      </c>
-      <c r="B107" t="s">
-        <v>139</v>
+      <c r="A107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>140</v>
+        <v>119</v>
+      </c>
+      <c r="C108" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>26</v>
+      </c>
+      <c r="C109" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C110" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="C111" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" s="3">
+        <v>43157.832569444443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>13</v>
+      </c>
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>14</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B121" t="s">
         <v>145</v>
       </c>
-      <c r="C112">
+      <c r="C121">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A47:C47"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3052,7 +4183,7 @@
   <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C4" sqref="C4:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,9 +4321,9 @@
       <c r="E13" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <f ca="1">TODAY()</f>
-        <v>44247</v>
+        <v>44248</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -3242,7 +4373,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3252,17 +4383,17 @@
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3279,14 +4410,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D9DAD1-9CDE-4379-AD7B-C074435B0DB4}">
-  <dimension ref="A1"/>
+  <dimension ref="F1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F17"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resources/Database Diagram.xlsx
+++ b/Resources/Database Diagram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\Team-A-Kaggle_Brazilian_E_commerce\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Boot Camp\Homework\ETL project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5977F6A-B566-4C87-A30D-BD8ED4343F36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD1CFF6-E1C1-43C0-9859-4DACD33F86E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
+    <workbookView xWindow="1440" yWindow="1032" windowWidth="21600" windowHeight="11328" activeTab="4" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
   </bookViews>
   <sheets>
     <sheet name="Data sets" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="171">
   <si>
     <t>customer_id</t>
   </si>
@@ -259,9 +259,6 @@
     <t>olist_orders_dataset (AMIR)</t>
   </si>
   <si>
-    <t>NVARCHAR(60)</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -524,6 +521,27 @@
   </si>
   <si>
     <t xml:space="preserve">CHANGED_BY </t>
+  </si>
+  <si>
+    <t>VarChar(50)</t>
+  </si>
+  <si>
+    <t>VarChar(40)</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>VarChar(15)</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -625,14 +643,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2809,44 +2827,44 @@
   <dimension ref="A3:H14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2854,20 +2872,20 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="str">
         <f>CONCATENATE("stg_",B4)</f>
         <v>stg_olist_customer_dataset</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2875,41 +2893,41 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E14" si="0">CONCATENATE("stg_",B5)</f>
         <v>stg_olist_geolocation_dataset</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_order_items_dataset</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2917,20 +2935,20 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_order_payments_dataset</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2938,65 +2956,65 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_order_reviews_dataset</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_orders_dataset</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_products_dataset</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3004,86 +3022,86 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_sellers_dataset</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>stg_product_category_name_translation</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_marketing_qualified_leads_dataset</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_closed_deals_dataset</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3095,26 +3113,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD38FA21-38A4-4864-8FAF-3EEF1BAB0B21}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B21"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3128,7 +3146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3139,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3153,7 +3171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3164,7 +3182,7 @@
         <v>14409</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3175,7 +3193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3186,24 +3204,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -3218,7 +3236,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3229,10 +3247,10 @@
         <v>1037</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3243,10 +3261,10 @@
         <v>-23.545621281152599</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3257,10 +3275,10 @@
         <v>-46.6392920480016</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -3271,10 +3289,10 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3285,49 +3303,49 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>110</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="D21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -3341,7 +3359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3352,7 +3370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3374,7 +3392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3385,7 +3403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -3396,7 +3414,7 @@
         <v>42997.406655092593</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -3407,7 +3425,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7</v>
       </c>
@@ -3418,14 +3436,14 @@
         <v>13.29</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -3439,7 +3457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3449,8 +3467,11 @@
       <c r="C40" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3460,8 +3481,11 @@
       <c r="C41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3471,8 +3495,11 @@
       <c r="C42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3482,8 +3509,11 @@
       <c r="C43">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -3493,15 +3523,18 @@
       <c r="C44">
         <v>99.33</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="D44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -3515,7 +3548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3525,8 +3558,11 @@
       <c r="C49" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -3536,8 +3572,11 @@
       <c r="C50" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3547,24 +3586,33 @@
       <c r="C51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6</v>
       </c>
@@ -3574,8 +3622,11 @@
       <c r="C54" s="3">
         <v>43118</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>7</v>
       </c>
@@ -3585,15 +3636,18 @@
       <c r="C55" s="3">
         <v>43118.907627314817</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="D55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
@@ -3607,7 +3661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3617,8 +3671,11 @@
       <c r="C60" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3628,8 +3685,11 @@
       <c r="C61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3640,10 +3700,10 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -3653,8 +3713,11 @@
       <c r="C63" s="3">
         <v>43010.455937500003</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
@@ -3664,8 +3727,11 @@
       <c r="C64" s="3">
         <v>43010.463368055556</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6</v>
       </c>
@@ -3675,8 +3741,11 @@
       <c r="C65" s="3">
         <v>43012.829861111109</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>7</v>
       </c>
@@ -3686,8 +3755,11 @@
       <c r="C66" s="3">
         <v>43018.892511574071</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>8</v>
       </c>
@@ -3697,15 +3769,18 @@
       <c r="C67" s="3">
         <v>43026</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -3719,7 +3794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3730,7 +3805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3741,7 +3816,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3752,10 +3827,10 @@
         <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -3766,7 +3841,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
@@ -3777,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>6</v>
       </c>
@@ -3788,7 +3863,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7</v>
       </c>
@@ -3799,7 +3874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8</v>
       </c>
@@ -3810,7 +3885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>9</v>
       </c>
@@ -3821,14 +3896,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +3917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3853,7 +3928,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -3864,7 +3939,7 @@
         <v>13023</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3875,7 +3950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -3886,15 +3961,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>11</v>
       </c>
@@ -3909,7 +3984,7 @@
       </c>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3920,7 +3995,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -3931,14 +4006,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>11</v>
       </c>
@@ -3952,58 +4027,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
       <c r="B99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" t="s">
         <v>119</v>
       </c>
-      <c r="C99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C100" s="7">
         <v>43132</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>3</v>
       </c>
       <c r="B101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" t="s">
         <v>122</v>
       </c>
-      <c r="C101" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" t="s">
         <v>124</v>
       </c>
-      <c r="C102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
@@ -4017,18 +4092,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2</v>
       </c>
@@ -4036,124 +4111,124 @@
         <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>3</v>
       </c>
       <c r="B110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" t="s">
         <v>128</v>
       </c>
-      <c r="C110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>4</v>
       </c>
       <c r="B111" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" t="s">
         <v>130</v>
       </c>
-      <c r="C111" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C112" s="3">
         <v>43157.832569444443</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>6</v>
       </c>
       <c r="B113" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" t="s">
         <v>133</v>
       </c>
-      <c r="C113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>7</v>
       </c>
       <c r="B114" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" t="s">
         <v>135</v>
       </c>
-      <c r="C114" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>8</v>
       </c>
       <c r="B115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" t="s">
         <v>137</v>
       </c>
-      <c r="C115" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>12</v>
       </c>
       <c r="B119" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" t="s">
         <v>142</v>
       </c>
-      <c r="C119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4161,17 +4236,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A90:C90"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4186,16 +4261,16 @@
       <selection activeCell="C4" sqref="C4:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4209,7 +4284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4220,10 +4295,10 @@
         <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4234,7 +4309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4245,10 +4320,10 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4259,7 +4334,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4270,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -4281,7 +4356,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -4292,7 +4367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -4303,7 +4378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -4314,43 +4389,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7">
         <f ca="1">TODAY()</f>
         <v>44248</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>111</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>112</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>114</v>
-      </c>
-      <c r="F15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4363,38 +4438,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3FFCCF-85ED-4059-9026-9FD119C11E9B}">
   <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:2" ht="33.6" x14ac:dyDescent="0.65">
       <c r="B1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4412,53 +4487,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D9DAD1-9CDE-4379-AD7B-C074435B0DB4}">
   <dimension ref="F1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="5" t="s">
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="K5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="5" t="s">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K20" t="s">
+    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K23" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Database Diagram.xlsx
+++ b/Resources/Database Diagram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Boot Camp\Homework\ETL project\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\Team-A-Kaggle_Brazilian_E_commerce\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD1CFF6-E1C1-43C0-9859-4DACD33F86E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9106D35-59FA-4E4F-906C-1F8F96AC0459}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1032" windowWidth="21600" windowHeight="11328" activeTab="4" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
   </bookViews>
   <sheets>
     <sheet name="Data sets" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="170">
   <si>
     <t>customer_id</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>olist_products_dataset (AMIR)</t>
   </si>
   <si>
     <t>product_category_name_translation</t>
@@ -589,7 +586,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +611,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -628,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -650,6 +653,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2826,45 +2833,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A66E1-FB4A-47C0-94FA-14965B4D9DD2}">
   <dimension ref="A3:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2872,20 +2879,20 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" t="str">
         <f>CONCATENATE("stg_",B4)</f>
         <v>stg_olist_customer_dataset</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2893,41 +2900,41 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E14" si="0">CONCATENATE("stg_",B5)</f>
         <v>stg_olist_geolocation_dataset</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_order_items_dataset</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2935,20 +2942,23 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_order_payments_dataset</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2956,65 +2966,74 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_order_reviews_dataset</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_orders_dataset</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="str">
+      <c r="B10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_products_dataset</v>
       </c>
-      <c r="F10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3022,86 +3041,104 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_sellers_dataset</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>stg_product_category_name_translation</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_marketing_qualified_leads_dataset</v>
       </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
       <c r="G13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="H13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
         <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>92</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_closed_deals_dataset</v>
       </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3113,26 +3150,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD38FA21-38A4-4864-8FAF-3EEF1BAB0B21}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3146,7 +3183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3157,10 +3194,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3171,7 +3208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3182,7 +3219,7 @@
         <v>14409</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3193,7 +3230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3204,24 +3241,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -3236,7 +3273,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3247,10 +3284,10 @@
         <v>1037</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3261,10 +3298,10 @@
         <v>-23.545621281152599</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3275,10 +3312,10 @@
         <v>-46.6392920480016</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -3289,10 +3326,10 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3303,49 +3340,49 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -3359,7 +3396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3370,7 +3407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3381,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3392,7 +3429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3403,7 +3440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -3414,7 +3451,7 @@
         <v>42997.406655092593</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -3425,7 +3462,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -3436,14 +3473,14 @@
         <v>13.29</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -3457,7 +3494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3468,10 +3505,10 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3482,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3496,10 +3533,10 @@
         <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3510,10 +3547,10 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -3524,17 +3561,17 @@
         <v>99.33</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -3548,7 +3585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3559,10 +3596,10 @@
         <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -3573,10 +3610,10 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3587,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -3598,10 +3635,10 @@
         <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -3609,10 +3646,10 @@
         <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -3623,10 +3660,10 @@
         <v>43118</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>7</v>
       </c>
@@ -3637,17 +3674,17 @@
         <v>43118.907627314817</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
@@ -3661,7 +3698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3672,10 +3709,10 @@
         <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3686,10 +3723,10 @@
         <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3700,10 +3737,10 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -3714,10 +3751,10 @@
         <v>43010.455937500003</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5</v>
       </c>
@@ -3728,10 +3765,10 @@
         <v>43010.463368055556</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6</v>
       </c>
@@ -3742,10 +3779,10 @@
         <v>43012.829861111109</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7</v>
       </c>
@@ -3756,10 +3793,10 @@
         <v>43018.892511574071</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
@@ -3770,17 +3807,17 @@
         <v>43026</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -3794,7 +3831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3804,8 +3841,12 @@
       <c r="C72" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <f>LEN(C72)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3816,7 +3857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3830,7 +3871,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -3841,7 +3882,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -3852,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -3863,7 +3904,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7</v>
       </c>
@@ -3874,7 +3915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
@@ -3885,7 +3926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>9</v>
       </c>
@@ -3896,14 +3937,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -3917,7 +3958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3928,7 +3969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -3939,7 +3980,7 @@
         <v>13023</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3950,7 +3991,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -3961,15 +4002,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>11</v>
       </c>
@@ -3984,7 +4025,7 @@
       </c>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3995,7 +4036,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -4006,14 +4047,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>11</v>
       </c>
@@ -4027,58 +4068,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
       <c r="B99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" t="s">
         <v>118</v>
       </c>
-      <c r="C99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100" s="7">
         <v>43132</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
       <c r="B101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s">
         <v>121</v>
       </c>
-      <c r="C101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" t="s">
         <v>123</v>
       </c>
-      <c r="C102" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
@@ -4092,18 +4133,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="D108">
+        <f>LEN(C108)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -4111,124 +4156,136 @@
         <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ref="D109:D111" si="0">LEN(C109)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
       <c r="B110" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" t="s">
         <v>127</v>
       </c>
-      <c r="C110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
       <c r="B111" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" t="s">
         <v>129</v>
       </c>
-      <c r="C111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" s="3">
         <v>43157.832569444443</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
       <c r="B113" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" t="s">
         <v>132</v>
       </c>
-      <c r="C113" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7</v>
       </c>
       <c r="B114" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" t="s">
         <v>134</v>
       </c>
-      <c r="C114" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>8</v>
       </c>
       <c r="B115" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" t="s">
         <v>136</v>
       </c>
-      <c r="C115" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>12</v>
       </c>
       <c r="B119" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" t="s">
         <v>141</v>
       </c>
-      <c r="C119" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4236,17 +4293,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A90:C90"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4261,16 +4318,16 @@
       <selection activeCell="C4" sqref="C4:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4284,7 +4341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4295,10 +4352,10 @@
         <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4309,7 +4366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4323,7 +4380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4334,7 +4391,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4345,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -4356,7 +4413,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -4367,7 +4424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -4378,7 +4435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -4389,43 +4446,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7">
         <f ca="1">TODAY()</f>
         <v>44248</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>110</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>111</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>113</v>
-      </c>
-      <c r="F15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4442,34 +4499,34 @@
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="2:2" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4487,53 +4544,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D9DAD1-9CDE-4379-AD7B-C074435B0DB4}">
   <dimension ref="F1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="5" t="s">
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="K5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K18" s="5" t="s">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K19" t="s">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K20" t="s">
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K23" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Database Diagram.xlsx
+++ b/Resources/Database Diagram.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\Team-A-Kaggle_Brazilian_E_commerce\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9106D35-59FA-4E4F-906C-1F8F96AC0459}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359D4F9-A45D-4A5A-A6FD-9E7A1514B263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
+    <workbookView xWindow="1380" yWindow="435" windowWidth="23115" windowHeight="15150" activeTab="4" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
   </bookViews>
   <sheets>
     <sheet name="Data sets" sheetId="3" r:id="rId1"/>
     <sheet name="RAW Data" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
     <sheet name="Diagram" sheetId="2" r:id="rId4"/>
-    <sheet name="Code" sheetId="4" r:id="rId5"/>
+    <sheet name="ETL " sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="170">
   <si>
     <t>customer_id</t>
   </si>
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,7 +655,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1988,13 +1987,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -2335,16 +2334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2359,8 +2358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657850" y="1076325"/>
-          <a:ext cx="2057400" cy="914400"/>
+          <a:off x="6162675" y="1123950"/>
+          <a:ext cx="2352675" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2424,11 +2423,11 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -2448,8 +2447,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4686300" y="1533525"/>
-          <a:ext cx="971550" cy="57150"/>
+          <a:off x="4686300" y="1581150"/>
+          <a:ext cx="1476375" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2477,13 +2476,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2504,8 +2503,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7715250" y="1533525"/>
-          <a:ext cx="876300" cy="95250"/>
+          <a:off x="8515350" y="1581150"/>
+          <a:ext cx="866775" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2833,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A66E1-FB4A-47C0-94FA-14965B4D9DD2}">
   <dimension ref="A3:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,6 +2890,9 @@
       <c r="G4" t="s">
         <v>95</v>
       </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2912,6 +2914,9 @@
       <c r="G5" t="s">
         <v>96</v>
       </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2933,6 +2938,9 @@
       <c r="G6" t="s">
         <v>97</v>
       </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3010,26 +3018,26 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="13" t="str">
+      <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>stg_olist_products_dataset</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3811,11 +3819,11 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -3938,11 +3946,11 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -4003,11 +4011,11 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4048,11 +4056,11 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -4293,17 +4301,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A90:C90"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4455,7 +4463,7 @@
       </c>
       <c r="F13" s="7">
         <f ca="1">TODAY()</f>
-        <v>44248</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -4542,23 +4550,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D9DAD1-9CDE-4379-AD7B-C074435B0DB4}">
-  <dimension ref="F1:O23"/>
+  <dimension ref="F1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="39.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>145</v>
       </c>

--- a/Resources/Database Diagram.xlsx
+++ b/Resources/Database Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\Team-A-Kaggle_Brazilian_E_commerce\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359D4F9-A45D-4A5A-A6FD-9E7A1514B263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579C5E2D-B365-48FD-8765-1192D3E17D32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="435" windowWidth="23115" windowHeight="15150" activeTab="4" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
+    <workbookView xWindow="-28305" yWindow="120" windowWidth="26100" windowHeight="15150" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
   </bookViews>
   <sheets>
     <sheet name="Data sets" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="182">
   <si>
     <t>customer_id</t>
   </si>
@@ -539,6 +539,42 @@
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>Stg_Table A</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Search for Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If eXist </t>
+  </si>
+  <si>
+    <t>What has changed</t>
+  </si>
+  <si>
+    <t>Yes/ No</t>
   </si>
 </sst>
 </file>
@@ -649,13 +685,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -884,8 +920,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -902,8 +938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210051" y="1828800"/>
-          <a:ext cx="6648450" cy="6419850"/>
+          <a:off x="4191561" y="1825999"/>
+          <a:ext cx="9445998" cy="6419850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,16 +1179,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1167,8 +1203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8115300" y="4010025"/>
-          <a:ext cx="2247900" cy="2295525"/>
+          <a:off x="10485904" y="4096871"/>
+          <a:ext cx="2234453" cy="2295525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1224,10 +1260,10 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56310</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1245,8 +1281,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="3743325"/>
-          <a:ext cx="1162050" cy="1414463"/>
+          <a:off x="6912349" y="3740524"/>
+          <a:ext cx="3573555" cy="1504110"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1468,11 +1504,11 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1493,8 +1529,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7019925" y="5157788"/>
-          <a:ext cx="1095375" cy="1538287"/>
+          <a:off x="6979024" y="5244634"/>
+          <a:ext cx="3506880" cy="1448640"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1518,6 +1554,69 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDC7571-19C8-4ECC-A4F3-FE32FF8D8B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505264" y="4740087"/>
+          <a:ext cx="1815353" cy="907677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="2800"/>
+            <a:t>ETL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2832,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A66E1-FB4A-47C0-94FA-14965B4D9DD2}">
   <dimension ref="A3:H14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD38FA21-38A4-4864-8FAF-3EEF1BAB0B21}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,11 +3270,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3260,11 +3359,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3384,11 +3483,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3482,11 +3581,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -3573,11 +3672,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -3686,11 +3785,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -3819,11 +3918,11 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -3946,11 +4045,11 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -4011,11 +4110,11 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4056,11 +4155,11 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -4121,11 +4220,11 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -4301,17 +4400,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A90:C90"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4323,7 +4422,7 @@
   <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4503,7 +4602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3FFCCF-85ED-4059-9026-9FD119C11E9B}">
   <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
@@ -4550,15 +4649,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D9DAD1-9CDE-4379-AD7B-C074435B0DB4}">
-  <dimension ref="F1:M23"/>
+  <dimension ref="F1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="B25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:13" x14ac:dyDescent="0.25">
@@ -4574,34 +4675,101 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
       <c r="K18" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30">
+        <v>123</v>
+      </c>
+      <c r="I30" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" t="s">
+        <v>174</v>
+      </c>
+      <c r="L31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" t="s">
+        <v>175</v>
+      </c>
+      <c r="L32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Database Diagram.xlsx
+++ b/Resources/Database Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\Team-A-Kaggle_Brazilian_E_commerce\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579C5E2D-B365-48FD-8765-1192D3E17D32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D70D0F-D8A1-46D3-8F68-045179FEEFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28305" yWindow="120" windowWidth="26100" windowHeight="15150" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
+    <workbookView xWindow="375" yWindow="75" windowWidth="26100" windowHeight="15150" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
   </bookViews>
   <sheets>
     <sheet name="Data sets" sheetId="3" r:id="rId1"/>
@@ -685,13 +685,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2932,7 +2932,7 @@
   <dimension ref="A3:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -3042,9 +3042,6 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -3066,9 +3063,6 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -3090,9 +3084,6 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -3115,7 +3106,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>88</v>
@@ -3142,7 +3133,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>71</v>
@@ -3169,7 +3160,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>77</v>
@@ -3196,7 +3187,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>89</v>
@@ -3223,7 +3214,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>90</v>
@@ -3270,11 +3261,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3359,11 +3350,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3483,11 +3474,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3581,11 +3572,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -3672,11 +3663,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -3785,11 +3776,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -3918,11 +3909,11 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -4045,11 +4036,11 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -4110,11 +4101,11 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4155,11 +4146,11 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -4220,11 +4211,11 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -4400,17 +4391,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A90:C90"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4562,7 +4553,7 @@
       </c>
       <c r="F13" s="7">
         <f ca="1">TODAY()</f>
-        <v>44249</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">

--- a/Resources/Database Diagram.xlsx
+++ b/Resources/Database Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\Team-A-Kaggle_Brazilian_E_commerce\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D70D0F-D8A1-46D3-8F68-045179FEEFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC89D57-3F36-4ECF-A997-E80BBCBDA445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="75" windowWidth="26100" windowHeight="15150" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
+    <workbookView xWindow="2280" yWindow="2130" windowWidth="26100" windowHeight="15150" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
   </bookViews>
   <sheets>
     <sheet name="Data sets" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="185">
   <si>
     <t>customer_id</t>
   </si>
@@ -575,6 +575,15 @@
   </si>
   <si>
     <t>Yes/ No</t>
+  </si>
+  <si>
+    <t>ETL logic</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Code Compilation</t>
   </si>
 </sst>
 </file>
@@ -685,13 +694,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2929,10 +2938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A66E1-FB4A-47C0-94FA-14965B4D9DD2}">
-  <dimension ref="A3:H14"/>
+  <dimension ref="A3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,7 +2952,7 @@
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -2968,8 +2977,14 @@
       <c r="H3" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -2992,8 +3007,14 @@
       <c r="H4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3016,8 +3037,14 @@
       <c r="H5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3040,8 +3067,14 @@
       <c r="H6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -3061,8 +3094,14 @@
       <c r="H7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -3082,8 +3121,14 @@
       <c r="H8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -3103,8 +3148,14 @@
       <c r="H9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3130,8 +3181,14 @@
       <c r="H10" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3157,8 +3214,14 @@
       <c r="H11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3184,8 +3247,14 @@
       <c r="H12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -3211,8 +3280,14 @@
       <c r="H13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3236,6 +3311,12 @@
         <v>106</v>
       </c>
       <c r="H14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3248,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD38FA21-38A4-4864-8FAF-3EEF1BAB0B21}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,11 +3342,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3350,11 +3431,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3474,11 +3555,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3572,11 +3653,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -3663,11 +3744,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -3771,16 +3852,16 @@
       <c r="C55" s="3">
         <v>43118.907627314817</v>
       </c>
-      <c r="D55" t="s">
-        <v>112</v>
+      <c r="D55" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -3909,11 +3990,11 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -4036,11 +4117,11 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -4101,11 +4182,11 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4146,11 +4227,11 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -4211,11 +4292,11 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -4391,17 +4472,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A90:C90"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Resources/Database Diagram.xlsx
+++ b/Resources/Database Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\Team-A-Kaggle_Brazilian_E_commerce\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC89D57-3F36-4ECF-A997-E80BBCBDA445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670D46DB-8C5E-4361-874E-7B8B72F985CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2130" windowWidth="26100" windowHeight="15150" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
+    <workbookView xWindow="2280" yWindow="450" windowWidth="26100" windowHeight="15150" xr2:uid="{D6447C0C-CDE0-44DB-B773-F593A967F175}"/>
   </bookViews>
   <sheets>
     <sheet name="Data sets" sheetId="3" r:id="rId1"/>
@@ -694,13 +694,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -923,16 +923,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -947,8 +947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191561" y="1825999"/>
-          <a:ext cx="9445998" cy="6419850"/>
+          <a:off x="4403912" y="2319617"/>
+          <a:ext cx="7810500" cy="5277971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -987,7 +987,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>BrazilianE-Commerce</a:t>
+            <a:t>BrazilianE-Commerce EDW</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -997,15 +997,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>172011</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>129428</xdr:rowOff>
+      <xdr:colOff>743511</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>524436</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490818</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>53228</xdr:rowOff>
+      <xdr:rowOff>176493</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1020,7 +1020,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="777129" y="2650752"/>
+          <a:off x="1348629" y="2774017"/>
           <a:ext cx="2223807" cy="2209800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -1065,15 +1065,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>412937</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>222437</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1088,8 +1088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4705350" y="2638425"/>
-          <a:ext cx="2247900" cy="2209800"/>
+          <a:off x="4704790" y="4045324"/>
+          <a:ext cx="2229971" cy="2386853"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1116,14 +1116,21 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-MX" sz="1800"/>
-            <a:t> Stage</a:t>
+            <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="es-MX" sz="1800"/>
-            <a:t>stg_sls_NAMETABLE</a:t>
+            <a:rPr lang="es-MX" sz="2000"/>
+            <a:t>Stage </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="2000"/>
+            <a:t>Environment</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1132,16 +1139,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>524436</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490818</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>91328</xdr:rowOff>
+      <xdr:colOff>412937</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50427</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1158,9 +1165,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3000936" y="3740524"/>
-          <a:ext cx="1681442" cy="15128"/>
+        <a:xfrm>
+          <a:off x="3572436" y="3878917"/>
+          <a:ext cx="1132354" cy="1359834"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1188,16 +1195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8404</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>51547</xdr:rowOff>
+      <xdr:rowOff>40341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>427504</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>61072</xdr:rowOff>
+      <xdr:rowOff>49866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1212,7 +1219,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10485904" y="4096871"/>
+          <a:off x="9746316" y="4085665"/>
           <a:ext cx="2234453" cy="2295525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -1264,15 +1271,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>222437</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123263</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>56310</xdr:rowOff>
+      <xdr:rowOff>50427</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1285,13 +1292,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="4"/>
-          <a:endCxn id="7" idx="2"/>
+          <a:endCxn id="11" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6912349" y="3740524"/>
-          <a:ext cx="3573555" cy="1504110"/>
+        <a:xfrm flipV="1">
+          <a:off x="6934761" y="5238749"/>
+          <a:ext cx="505943" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1320,15 +1327,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>182096</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19610</xdr:rowOff>
+      <xdr:colOff>753596</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>534521</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133910</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500903</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33058</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1343,7 +1350,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="787214" y="5588934"/>
+          <a:off x="1358714" y="5297582"/>
           <a:ext cx="2223807" cy="2209800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -1387,16 +1394,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>534521</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500903</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>172010</xdr:rowOff>
+      <xdr:colOff>412937</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71158</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1408,14 +1415,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="9" idx="4"/>
-          <a:endCxn id="16" idx="2"/>
+          <a:endCxn id="4" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3011021" y="6693274"/>
-          <a:ext cx="1738032" cy="560"/>
+          <a:off x="3582521" y="5238751"/>
+          <a:ext cx="1122269" cy="1163731"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1443,23 +1451,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123263</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123263</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Flowchart: Magnetic Disk 15">
+        <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BA76E6-9E85-418F-A459-A24B14F917A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDC7571-19C8-4ECC-A4F3-FE32FF8D8B0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,25 +1475,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="5591175"/>
-          <a:ext cx="2247900" cy="2209800"/>
+          <a:off x="7440704" y="4784910"/>
+          <a:ext cx="1815353" cy="907677"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="2">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1494,15 +1504,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="es-MX" sz="1800"/>
-            <a:t>Marketing Stage</a:t>
+            <a:rPr lang="es-MX" sz="2800"/>
+            <a:t>ETL</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-MX" sz="1800"/>
-            <a:t>stg_mkt_NAMETABLE</a:t>
+            <a:t>(Python)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1511,35 +1521,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123263</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>56310</xdr:rowOff>
+      <xdr:rowOff>45104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8404</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6ECD12-950C-4C4C-99A2-43701D26B612}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76CA6C7-1F23-46E7-B4B5-86BA5F0B1DFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="4"/>
+          <a:stCxn id="11" idx="3"/>
           <a:endCxn id="7" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6979024" y="5244634"/>
-          <a:ext cx="3506880" cy="1448640"/>
+          <a:off x="9256057" y="5233428"/>
+          <a:ext cx="490259" cy="5321"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1567,23 +1577,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123263</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>555811</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>118781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
+        <xdr:cNvPr id="39" name="Rectangle 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDC7571-19C8-4ECC-A4F3-FE32FF8D8B0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C10D00-7D1D-48BE-A4A0-BCD0D47A6A01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,10 +1601,94 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8505264" y="4740087"/>
-          <a:ext cx="1815353" cy="907677"/>
+          <a:off x="12360087" y="2315134"/>
+          <a:ext cx="3379695" cy="5277971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Analysis </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Data Mart</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Flowchart: Multidocument 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A922C38-3A53-425F-A79E-300950A82475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13211735" y="3608294"/>
+          <a:ext cx="1680882" cy="1378324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMultidocument">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1618,14 +1712,67 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="2800"/>
-            <a:t>ETL</a:t>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="2000" b="1"/>
+            <a:t>Reports</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>232881</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>29135</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF738055-2511-49C4-98F9-1D96B728C348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12996381" y="5345205"/>
+          <a:ext cx="2216725" cy="1475486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3342,11 +3489,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3431,11 +3578,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3555,11 +3702,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3653,11 +3800,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -3744,11 +3891,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -3857,11 +4004,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -3990,11 +4137,11 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -4117,11 +4264,11 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -4182,11 +4329,11 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4227,11 +4374,11 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -4292,11 +4439,11 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -4472,17 +4619,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A90:C90"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4634,7 +4781,7 @@
       </c>
       <c r="F13" s="7">
         <f ca="1">TODAY()</f>
-        <v>44250</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -4674,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3FFCCF-85ED-4059-9026-9FD119C11E9B}">
   <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
